--- a/database/capsules_spreadsheets/Winter 2022 Capsules.xlsx
+++ b/database/capsules_spreadsheets/Winter 2022 Capsules.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="266">
   <si>
     <t>title</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>public notes</t>
+  </si>
+  <si>
+    <t>ticketing url</t>
   </si>
   <si>
     <t>slot</t>
@@ -1564,8 +1567,8 @@
     <col customWidth="1" min="13" max="14" width="12.75"/>
     <col customWidth="1" min="15" max="16" width="9.0"/>
     <col customWidth="1" min="17" max="17" width="22.0"/>
-    <col customWidth="1" min="18" max="18" width="33.0"/>
-    <col customWidth="1" min="19" max="19" width="19.75"/>
+    <col customWidth="1" min="18" max="19" width="33.0"/>
+    <col customWidth="1" min="20" max="20" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
@@ -1626,38 +1629,41 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B52" si="1">len(H2)</f>
         <v>495</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10">
         <v>1990.0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="14">
         <v>42457.0</v>
@@ -1672,38 +1678,39 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" ht="101.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="19">
         <v>1934.0</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="14">
         <v>42458.0</v>
@@ -1718,35 +1725,35 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="27">
         <v>1954.0</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="29">
         <v>44585.0</v>
@@ -1758,41 +1765,41 @@
       <c r="N4" s="31"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
-      <c r="S4" s="25" t="s">
-        <v>40</v>
+      <c r="T4" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="33">
         <v>1991.0</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="35">
         <v>44587.0</v>
@@ -1804,37 +1811,37 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
-      <c r="S5" s="25" t="s">
-        <v>47</v>
+      <c r="T5" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="37">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="33">
         <v>1987.0</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="35">
         <v>44588.0</v>
@@ -1846,41 +1853,41 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
-      <c r="S6" s="25" t="s">
-        <v>54</v>
+      <c r="T6" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" s="33">
         <v>1999.0</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="40">
         <v>44588.0</v>
@@ -1892,41 +1899,41 @@
       <c r="N7" s="30"/>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
-      <c r="S7" s="25" t="s">
-        <v>61</v>
+      <c r="T7" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="33">
         <v>1960.0</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="43">
         <v>44589.0</v>
@@ -1940,41 +1947,42 @@
       <c r="P8" s="32"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="44"/>
-      <c r="S8" s="45" t="s">
-        <v>68</v>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" s="43">
         <v>44590.0</v>
@@ -1986,41 +1994,41 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
-      <c r="S9" s="25" t="s">
-        <v>77</v>
+      <c r="T9" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="33">
         <v>1959.0</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="43">
         <v>44591.0</v>
@@ -2032,41 +2040,41 @@
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="S10" s="25" t="s">
-        <v>84</v>
+      <c r="T10" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>807</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="43">
         <v>44592.0</v>
@@ -2078,41 +2086,41 @@
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
-      <c r="S11" s="25" t="s">
-        <v>40</v>
+      <c r="T11" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" s="27">
         <v>1943.0</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="43">
         <v>44593.0</v>
@@ -2124,41 +2132,41 @@
       <c r="N12" s="32"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
-      <c r="S12" s="25" t="s">
-        <v>93</v>
+      <c r="T12" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="33">
         <v>2001.0</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K13" s="43">
         <v>44595.0</v>
@@ -2170,41 +2178,41 @@
       <c r="N13" s="51"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
-      <c r="S13" s="25" t="s">
-        <v>61</v>
+      <c r="T13" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="53">
         <v>1961.0</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="56">
         <v>44596.0</v>
@@ -2216,41 +2224,41 @@
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
-      <c r="S14" s="25" t="s">
-        <v>68</v>
+      <c r="T14" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G15" s="33">
         <v>2021.0</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="43">
         <v>44597.0</v>
@@ -2262,41 +2270,41 @@
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
-      <c r="S15" s="25" t="s">
-        <v>77</v>
+      <c r="T15" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="33">
         <v>1961.0</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="43">
         <v>44598.0</v>
@@ -2308,41 +2316,41 @@
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
-      <c r="S16" s="25" t="s">
-        <v>84</v>
+      <c r="T16" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="33">
         <v>2000.0</v>
       </c>
       <c r="H17" s="58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="35">
         <v>44599.0</v>
@@ -2354,41 +2362,41 @@
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
-      <c r="S17" s="25" t="s">
-        <v>40</v>
+      <c r="T17" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="33">
         <v>1950.0</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="43">
         <v>44600.0</v>
@@ -2400,41 +2408,41 @@
       <c r="N18" s="60"/>
       <c r="O18" s="52"/>
       <c r="P18" s="52"/>
-      <c r="S18" s="25" t="s">
-        <v>93</v>
+      <c r="T18" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="33">
         <v>2002.0</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="43">
         <v>44601.0</v>
@@ -2446,41 +2454,41 @@
       <c r="N19" s="61"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
-      <c r="S19" s="25" t="s">
-        <v>47</v>
+      <c r="T19" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="33">
         <v>1987.0</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="43">
         <v>44602.0</v>
@@ -2492,41 +2500,41 @@
       <c r="N20" s="36"/>
       <c r="O20" s="63"/>
       <c r="P20" s="63"/>
-      <c r="S20" s="64" t="s">
-        <v>54</v>
+      <c r="T20" s="64" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="33">
         <v>1999.0</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" s="40">
         <v>44602.0</v>
@@ -2540,41 +2548,42 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
-      <c r="S21" s="45" t="s">
-        <v>61</v>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" s="33">
         <v>1956.0</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" s="43">
         <v>44603.0</v>
@@ -2588,41 +2597,42 @@
       <c r="P22" s="52"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
-      <c r="S22" s="25" t="s">
-        <v>68</v>
+      <c r="S22" s="44"/>
+      <c r="T22" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" s="33">
         <v>1969.0</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" s="29">
         <v>44605.0</v>
@@ -2634,41 +2644,41 @@
       <c r="N23" s="60"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
-      <c r="S23" s="25" t="s">
-        <v>84</v>
+      <c r="T23" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
         <v>457</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" s="29">
         <v>44607.0</v>
@@ -2680,39 +2690,39 @@
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
-      <c r="S24" s="25" t="s">
-        <v>93</v>
+      <c r="T24" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25" s="29">
         <v>44608.0</v>
@@ -2724,41 +2734,41 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
-      <c r="S25" s="25" t="s">
-        <v>47</v>
+      <c r="T25" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
         <v>453</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" s="33">
         <v>1994.0</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" s="40">
         <v>44609.0</v>
@@ -2772,41 +2782,42 @@
       <c r="P26" s="69"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
-      <c r="S26" s="45" t="s">
-        <v>54</v>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
         <v>446</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" s="59">
         <v>2021.0</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" s="56">
         <v>44611.0</v>
@@ -2818,41 +2829,41 @@
       <c r="N27" s="30"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
-      <c r="S27" s="25" t="s">
-        <v>77</v>
+      <c r="T27" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" s="59">
         <v>1975.0</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28" s="56">
         <v>44612.0</v>
@@ -2864,41 +2875,41 @@
       <c r="N28" s="30"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
-      <c r="S28" s="25" t="s">
-        <v>84</v>
+      <c r="T28" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" s="59">
         <v>2014.0</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K29" s="56">
         <v>44613.0</v>
@@ -2910,41 +2921,41 @@
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
-      <c r="S29" s="25" t="s">
-        <v>40</v>
+      <c r="T29" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" s="27">
         <v>1962.0</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K30" s="29">
         <v>44614.0</v>
@@ -2956,13 +2967,13 @@
       <c r="N30" s="60"/>
       <c r="O30" s="52"/>
       <c r="P30" s="52"/>
-      <c r="S30" s="25" t="s">
-        <v>93</v>
+      <c r="T30" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
@@ -2971,22 +2982,22 @@
       <c r="C31" s="23"/>
       <c r="D31" s="67"/>
       <c r="E31" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K31" s="29">
         <v>44615.0</v>
@@ -2998,41 +3009,41 @@
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
       <c r="P31" s="32"/>
-      <c r="S31" s="25" t="s">
-        <v>47</v>
+      <c r="T31" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G32" s="59">
         <v>1999.0</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K32" s="56">
         <v>44616.0</v>
@@ -3046,41 +3057,42 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="44"/>
       <c r="R32" s="44"/>
-      <c r="S32" s="45" t="s">
-        <v>54</v>
+      <c r="S32" s="44"/>
+      <c r="T32" s="45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="33">
         <v>1998.0</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" s="29">
         <v>44616.0</v>
@@ -3094,41 +3106,42 @@
       <c r="P33" s="30"/>
       <c r="Q33" s="44"/>
       <c r="R33" s="44"/>
-      <c r="S33" s="45" t="s">
-        <v>61</v>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G34" s="33">
         <v>1961.0</v>
       </c>
       <c r="H34" s="62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K34" s="29">
         <v>44617.0</v>
@@ -3142,41 +3155,42 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
-      <c r="S34" s="25" t="s">
-        <v>68</v>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G35" s="33">
         <v>2021.0</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K35" s="43">
         <v>44618.0</v>
@@ -3188,41 +3202,41 @@
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
       <c r="P35" s="32"/>
-      <c r="S35" s="25" t="s">
-        <v>77</v>
+      <c r="T35" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G36" s="59">
         <v>1977.0</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I36" s="59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" s="56">
         <v>44619.0</v>
@@ -3234,41 +3248,41 @@
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
-      <c r="S36" s="25" t="s">
-        <v>84</v>
+      <c r="T36" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G37" s="59">
         <v>1976.0</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I37" s="59" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37" s="56">
         <v>44620.0</v>
@@ -3282,41 +3296,42 @@
       <c r="P37" s="32"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
-      <c r="S37" s="45" t="s">
-        <v>40</v>
+      <c r="S37" s="44"/>
+      <c r="T37" s="45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G38" s="59">
         <v>1986.0</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38" s="56">
         <v>44621.0</v>
@@ -3330,41 +3345,42 @@
       <c r="P38" s="30"/>
       <c r="Q38" s="44"/>
       <c r="R38" s="44"/>
-      <c r="S38" s="45" t="s">
-        <v>93</v>
+      <c r="S38" s="44"/>
+      <c r="T38" s="45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" s="59">
         <v>2007.0</v>
       </c>
       <c r="H39" s="70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K39" s="56">
         <v>44622.0</v>
@@ -3376,39 +3392,39 @@
       <c r="N39" s="30"/>
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
-      <c r="S39" s="25" t="s">
-        <v>47</v>
+      <c r="T39" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="53"/>
       <c r="E40" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G40" s="59">
         <v>1997.0</v>
       </c>
       <c r="H40" s="78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K40" s="56">
         <v>44623.0</v>
@@ -3420,41 +3436,41 @@
       <c r="N40" s="80"/>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
-      <c r="S40" s="25" t="s">
-        <v>54</v>
+      <c r="T40" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" s="59">
         <v>2000.0</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I41" s="59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" s="56">
         <v>44623.0</v>
@@ -3466,41 +3482,41 @@
       <c r="N41" s="61"/>
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
-      <c r="S41" s="25" t="s">
-        <v>61</v>
+      <c r="T41" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G42" s="59">
         <v>1963.0</v>
       </c>
       <c r="H42" s="83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I42" s="59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42" s="56">
         <v>44624.0</v>
@@ -3512,41 +3528,41 @@
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
-      <c r="S42" s="25" t="s">
-        <v>68</v>
+      <c r="T42" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G43" s="84">
         <v>2021.0</v>
       </c>
       <c r="H43" s="70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J43" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" s="56">
         <v>44625.0</v>
@@ -3558,41 +3574,41 @@
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
       <c r="P43" s="32"/>
-      <c r="S43" s="25" t="s">
-        <v>77</v>
+      <c r="T43" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G44" s="59">
         <v>1979.0</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I44" s="59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44" s="56">
         <v>44626.0</v>
@@ -3604,41 +3620,41 @@
       <c r="N44" s="30"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
-      <c r="S44" s="25" t="s">
-        <v>84</v>
+      <c r="T44" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
         <v>442</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G45" s="59">
         <v>1970.0</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I45" s="59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" s="56">
         <v>44627.0</v>
@@ -3650,41 +3666,41 @@
       <c r="N45" s="61"/>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
-      <c r="S45" s="25" t="s">
-        <v>40</v>
+      <c r="T45" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
         <v>458</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G46" s="59">
         <v>1990.0</v>
       </c>
       <c r="H46" s="49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I46" s="59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" s="56">
         <v>44628.0</v>
@@ -3696,41 +3712,41 @@
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
-      <c r="S46" s="25" t="s">
-        <v>93</v>
+      <c r="T46" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" s="53">
         <v>2015.0</v>
       </c>
       <c r="H47" s="70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I47" s="53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47" s="56">
         <v>44629.0</v>
@@ -3744,41 +3760,42 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="44"/>
       <c r="R47" s="25"/>
-      <c r="S47" s="25" t="s">
-        <v>47</v>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G48" s="53">
         <v>2014.0</v>
       </c>
       <c r="H48" s="78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I48" s="53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48" s="56">
         <v>44630.0</v>
@@ -3790,41 +3807,41 @@
       <c r="N48" s="30"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
-      <c r="S48" s="25" t="s">
-        <v>54</v>
+      <c r="T48" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="59">
         <v>2001.0</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I49" s="59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K49" s="56">
         <v>44630.0</v>
@@ -3836,39 +3853,39 @@
       <c r="N49" s="61"/>
       <c r="O49" s="41"/>
       <c r="P49" s="41"/>
-      <c r="S49" s="25" t="s">
-        <v>61</v>
+      <c r="T49" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="53"/>
       <c r="E50" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G50" s="59">
         <v>1958.0</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I50" s="59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K50" s="56">
         <v>44631.0</v>
@@ -3880,39 +3897,39 @@
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
-      <c r="S50" s="25" t="s">
-        <v>68</v>
+      <c r="T50" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G51" s="33">
         <v>2021.0</v>
       </c>
       <c r="H51" s="62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K51" s="29">
         <v>44632.0</v>
@@ -3924,41 +3941,41 @@
       <c r="N51" s="61"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41"/>
-      <c r="S51" s="25" t="s">
-        <v>77</v>
+      <c r="T51" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B52" s="5">
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G52" s="53">
         <v>1981.0</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I52" s="53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J52" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K52" s="56">
         <v>44633.0</v>
@@ -3970,8 +3987,8 @@
       <c r="N52" s="30"/>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
-      <c r="S52" s="25" t="s">
-        <v>84</v>
+      <c r="T52" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4121,13 +4138,13 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1">
       <c r="A1" s="86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D1" s="87" t="s">
         <v>3</v>
@@ -4136,13 +4153,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
@@ -4158,29 +4175,29 @@
     </row>
     <row r="2" ht="65.25" customHeight="1">
       <c r="A2" s="89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F2="""","""",COUNTA(SPLIT(F2,"" "")))"),107.0)</f>
         <v>107</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I2" s="94"/>
       <c r="J2" s="89"/>
@@ -4196,26 +4213,26 @@
     </row>
     <row r="3">
       <c r="A3" s="101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B3" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F3="""","""",COUNTA(SPLIT(F3,"" "")))"),115.0)</f>
         <v>115</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G3" s="106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="107"/>
       <c r="I3" s="106"/>
@@ -4232,26 +4249,26 @@
     </row>
     <row r="4">
       <c r="A4" s="101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F4="""","""",COUNTA(SPLIT(F4,"" "")))"),155.0)</f>
         <v>155</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G4" s="106" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" s="104"/>
       <c r="I4" s="106"/>
@@ -4268,26 +4285,26 @@
     </row>
     <row r="5">
       <c r="A5" s="101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B5" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F5="""","""",COUNTA(SPLIT(F5,"" "")))"),220.0)</f>
         <v>220</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5" s="106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="106"/>
@@ -4304,26 +4321,26 @@
     </row>
     <row r="6">
       <c r="A6" s="101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F6="""","""",COUNTA(SPLIT(F6,"" "")))"),231.0)</f>
         <v>231</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G6" s="106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="105"/>
       <c r="I6" s="106"/>
@@ -4340,26 +4357,26 @@
     </row>
     <row r="7">
       <c r="A7" s="124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B7" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F7="""","""",COUNTA(SPLIT(F7,"" "")))"),231.0)</f>
         <v>231</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G7" s="106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="125"/>
       <c r="I7" s="106"/>
@@ -4376,29 +4393,29 @@
     </row>
     <row r="8">
       <c r="A8" s="124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B8" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F8="""","""",COUNTA(SPLIT(F8,"" "")))"),164.0)</f>
         <v>164</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D8" s="126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G8" s="129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="130"/>
@@ -4414,7 +4431,7 @@
     </row>
     <row r="9">
       <c r="A9" s="101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B9" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F9="""","""",COUNTA(SPLIT(F9,"" "")))"),"")</f>
@@ -4422,14 +4439,14 @@
       </c>
       <c r="C9" s="104"/>
       <c r="D9" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="117"/>
       <c r="G9" s="106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="105"/>
       <c r="I9" s="106"/>
@@ -4446,26 +4463,26 @@
     </row>
     <row r="10">
       <c r="A10" s="101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B10" s="90">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(F10="""","""",COUNTA(SPLIT(F10,"" "")))"),249.0)</f>
         <v>249</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" s="105"/>
       <c r="I10" s="106"/>
